--- a/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,76 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -133,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,83 +463,83 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (EuroQol) (tasa de respuesta: 99,74%)</t>
+          <t>Calidad de vida asociada a la salud (EuroQol) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -620,447 +552,443 @@
       <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>0.8269626006478855</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.8769543873572347</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.9013448677308769</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.6457690269704703</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.8142335215165301</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.7663101573015848</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.7274622511005852</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.8418992704871351</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.8183309587630293</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 0,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 0,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 0,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 0,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 0,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 0,77</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 0,85</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 0,83</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.7666269853028608</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.8543051792298847</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.8746796349298803</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.5782315121700382</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.7853558413518205</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.727631186250051</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.6822621841406343</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.8239092055853231</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.7932807154177473</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.8664101907771322</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.8975586261807118</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.9205608360866142</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.6989887960671393</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.8358240434692491</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.797294023005273</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.7664518941027783</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.8573226491905228</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.8397576717464675</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 0,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 0,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 0,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,89</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,94</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,91</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>0.9072098658813758</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.9427834997220809</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.9202320232147498</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.8598731675554289</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.9206750229800269</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.8893370849899717</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.8836659337431609</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.9315921136263742</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.9049315723199803</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.8949975101550514</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.934886759537725</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.9082525072191767</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.8453895429588404</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.9120566701165699</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.8775712346214402</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.8744669080191584</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.9248947163856807</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.8965134059772498</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.9188803377883701</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.9502830834164002</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.9290704240784375</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.8738350257146053</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.9288159074274623</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.9000740968968136</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.8923128815690292</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.937030064533113</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.9121693056690262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 0,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,95</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,93</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 0,97</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>0.9403040272524721</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.9684480525442637</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.9390697372171117</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.9170893456929233</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.9538883386911811</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.9255807641588996</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.9273596765465216</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.9608513940776032</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.931755777499775</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.9291074664903416</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.9590439021132973</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.9255059627101246</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.9055275751776359</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.9442418539141332</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.9112978208940721</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.9200324684416529</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>0.9535351360742566</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>0.9228439597181116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.9489834175565691</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.9750366208013631</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.9494222348171044</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0.9256023171958958</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.961269130205497</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0.9366345470981874</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0.9331243388454528</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>0.9660257523121846</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>0.9395785659646589</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 0,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 0,86</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,89</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,88</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,93</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>0.9066530887713951</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.9403105008948861</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.923658560261074</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0.8477009962454601</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.9118225107899367</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>0.8827620152206438</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>0.8756148686450297</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>0.9255312181643061</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>0.9022515780923711</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.8943772927411832</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.9341855929587517</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0.9149640542840295</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>0.8334888727784429</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0.9043973879600093</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0.8734168584621314</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0.8670116204420344</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0.9208508671795139</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0.8965646489335709</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.9151225031631572</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0.9463527906450899</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>0.930194813585112</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.859746833237883</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.9183178550516775</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>0.8916428679673751</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>0.8833225489465991</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>0.9299560530622657</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>0.9082491512780195</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1069,13 +997,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
